--- a/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
@@ -42,46 +42,46 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Modèle logique métier - FR LM Non remboursable</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2026-01-14T15:34:52+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Non remboursable</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2026-01-07T21:00:10+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>FRANCE</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Modèle logique métier - FR LM Entrée Non remboursable</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-non-remboursable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
